--- a/spring-batch-excel/src/main/resources/deltager.xlsx
+++ b/spring-batch-excel/src/main/resources/deltager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="RadGridExport" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="0" iterateDelta="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="470">
   <si>
     <t>OrderID</t>
   </si>
@@ -114,24 +114,6 @@
     <t>654321</t>
   </si>
   <si>
-    <t>3493374</t>
-  </si>
-  <si>
-    <t>Rasmussen</t>
-  </si>
-  <si>
-    <t>Joann Janey</t>
-  </si>
-  <si>
-    <t>joannjr@getmail.no</t>
-  </si>
-  <si>
-    <t>47261979</t>
-  </si>
-  <si>
-    <t>Spirit Friidrett</t>
-  </si>
-  <si>
     <t>1979</t>
   </si>
   <si>
@@ -270,24 +252,9 @@
     <t>3493391</t>
   </si>
   <si>
-    <t>Meisingset</t>
-  </si>
-  <si>
-    <t>Rune Kenneth</t>
-  </si>
-  <si>
-    <t>runekm@gmail.com</t>
-  </si>
-  <si>
-    <t>47053337</t>
-  </si>
-  <si>
     <t>Holmestrand</t>
   </si>
   <si>
-    <t>29593</t>
-  </si>
-  <si>
     <t>Gran</t>
   </si>
   <si>
@@ -444,27 +411,6 @@
     <t>952101</t>
   </si>
   <si>
-    <t>3493718</t>
-  </si>
-  <si>
-    <t>Rike</t>
-  </si>
-  <si>
-    <t>Eva Midtgard</t>
-  </si>
-  <si>
-    <t>Eva.rike@rolls-royce.com</t>
-  </si>
-  <si>
-    <t>92821736</t>
-  </si>
-  <si>
-    <t>TT IL</t>
-  </si>
-  <si>
-    <t>36654</t>
-  </si>
-  <si>
     <t>3493768</t>
   </si>
   <si>
@@ -639,30 +585,12 @@
     <t>M55-59 år</t>
   </si>
   <si>
-    <t>3496509</t>
-  </si>
-  <si>
-    <t>Moe</t>
-  </si>
-  <si>
     <t>Marianne</t>
   </si>
   <si>
-    <t>mamo3@online.no</t>
-  </si>
-  <si>
-    <t>47603915</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
     <t>K45-49 år</t>
   </si>
   <si>
-    <t>26139</t>
-  </si>
-  <si>
     <t>3512052</t>
   </si>
   <si>
@@ -726,18 +654,6 @@
     <t>www.sykkel.no</t>
   </si>
   <si>
-    <t>3514242</t>
-  </si>
-  <si>
-    <t>Truls</t>
-  </si>
-  <si>
-    <t>truls@sykkel.com</t>
-  </si>
-  <si>
-    <t>90048800</t>
-  </si>
-  <si>
     <t>3514310</t>
   </si>
   <si>
@@ -786,24 +702,6 @@
     <t>1980</t>
   </si>
   <si>
-    <t>3529556</t>
-  </si>
-  <si>
-    <t>Kongsgård</t>
-  </si>
-  <si>
-    <t>Sondre</t>
-  </si>
-  <si>
-    <t>sondre.kongsgaard@gmail.com</t>
-  </si>
-  <si>
-    <t>90299484</t>
-  </si>
-  <si>
-    <t>NTNUI</t>
-  </si>
-  <si>
     <t>1993</t>
   </si>
   <si>
@@ -999,9 +897,6 @@
     <t>Jessheim</t>
   </si>
   <si>
-    <t>080290</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -1122,27 +1017,6 @@
     <t>27338</t>
   </si>
   <si>
-    <t>3642601</t>
-  </si>
-  <si>
-    <t>Sagvolden</t>
-  </si>
-  <si>
-    <t>Erik</t>
-  </si>
-  <si>
-    <t>esagvolden@gmail.com</t>
-  </si>
-  <si>
-    <t>98843634</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>989898</t>
-  </si>
-  <si>
     <t>3645210</t>
   </si>
   <si>
@@ -1182,27 +1056,6 @@
     <t>950303</t>
   </si>
   <si>
-    <t>3647486</t>
-  </si>
-  <si>
-    <t>Bull</t>
-  </si>
-  <si>
-    <t>Ivar August</t>
-  </si>
-  <si>
-    <t>Ivaraugust@gmail.com</t>
-  </si>
-  <si>
-    <t>97147573</t>
-  </si>
-  <si>
-    <t>Bergen Brannvesen</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
     <t>3648046</t>
   </si>
   <si>
@@ -1479,9 +1332,6 @@
     <t>Indre Arna</t>
   </si>
   <si>
-    <t>210570</t>
-  </si>
-  <si>
     <t>36866</t>
   </si>
   <si>
@@ -1501,9 +1351,6 @@
   </si>
   <si>
     <t>IL fri</t>
-  </si>
-  <si>
-    <t>300568</t>
   </si>
   <si>
     <t>3714252</t>
@@ -1592,7 +1439,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="d\.\ mmmm\ yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="d\.\ mmmm\ yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1630,7 +1477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1978,13 +1825,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,25 +1946,25 @@
     </row>
     <row r="3" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -2128,92 +1979,92 @@
         <v>42436</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="2">
-        <v>42432.502083333333</v>
+        <v>42432.50277777778</v>
       </c>
       <c r="J4" s="2">
-        <v>42432.502083333333</v>
+        <v>42432.50277777778</v>
       </c>
       <c r="K4" s="2">
         <v>42436</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>22</v>
@@ -2234,39 +2085,39 @@
         <v>42436</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
@@ -2278,48 +2129,48 @@
         <v>23</v>
       </c>
       <c r="I6" s="2">
-        <v>42432.50277777778</v>
+        <v>42432.503472222219</v>
       </c>
       <c r="J6" s="2">
-        <v>42432.50277777778</v>
+        <v>42432.503472222219</v>
       </c>
       <c r="K6" s="2">
         <v>42436</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -2340,92 +2191,92 @@
         <v>42436</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="2">
-        <v>42432.503472222219</v>
+        <v>42432.506944444445</v>
       </c>
       <c r="J8" s="2">
-        <v>42432.503472222219</v>
+        <v>42432.506944444445</v>
       </c>
       <c r="K8" s="2">
         <v>42436</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
@@ -2437,48 +2288,48 @@
         <v>23</v>
       </c>
       <c r="I9" s="2">
-        <v>42432.506944444445</v>
+        <v>42432.508333333331</v>
       </c>
       <c r="J9" s="2">
-        <v>42432.506944444445</v>
+        <v>42432.508333333331</v>
       </c>
       <c r="K9" s="2">
         <v>42436</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
@@ -2490,22 +2341,22 @@
         <v>23</v>
       </c>
       <c r="I10" s="2">
-        <v>42432.506944444445</v>
+        <v>42432.519444444442</v>
       </c>
       <c r="J10" s="2">
-        <v>42432.506944444445</v>
+        <v>42432.519444444442</v>
       </c>
       <c r="K10" s="2">
         <v>42436</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>27</v>
@@ -2514,24 +2365,24 @@
         <v>28</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -2543,48 +2394,48 @@
         <v>23</v>
       </c>
       <c r="I11" s="2">
-        <v>42432.508333333331</v>
+        <v>42432.519444444442</v>
       </c>
       <c r="J11" s="2">
-        <v>42432.508333333331</v>
+        <v>42432.519444444442</v>
       </c>
       <c r="K11" s="2">
         <v>42436</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
@@ -2596,48 +2447,48 @@
         <v>23</v>
       </c>
       <c r="I12" s="2">
-        <v>42432.519444444442</v>
+        <v>42432.536805555552</v>
       </c>
       <c r="J12" s="2">
-        <v>42432.519444444442</v>
+        <v>42432.536805555552</v>
       </c>
       <c r="K12" s="2">
         <v>42436</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>22</v>
@@ -2649,48 +2500,48 @@
         <v>23</v>
       </c>
       <c r="I13" s="2">
-        <v>42432.519444444442</v>
+        <v>42432.56527777778</v>
       </c>
       <c r="J13" s="2">
-        <v>42432.519444444442</v>
+        <v>42432.56527777778</v>
       </c>
       <c r="K13" s="2">
         <v>42436</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>22</v>
@@ -2702,207 +2553,207 @@
         <v>23</v>
       </c>
       <c r="I14" s="2">
-        <v>42432.536805555552</v>
+        <v>42432.583333333328</v>
       </c>
       <c r="J14" s="2">
-        <v>42432.536805555552</v>
+        <v>42432.583333333328</v>
       </c>
       <c r="K14" s="2">
         <v>42436</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="2">
-        <v>42432.56527777778</v>
+        <v>42432.614583333328</v>
       </c>
       <c r="J15" s="2">
-        <v>42432.56527777778</v>
+        <v>42432.614583333328</v>
       </c>
       <c r="K15" s="2">
         <v>42436</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="2">
-        <v>42432.583333333328</v>
+        <v>42432.619444444441</v>
       </c>
       <c r="J16" s="2">
-        <v>42432.583333333328</v>
+        <v>42432.619444444441</v>
       </c>
       <c r="K16" s="2">
         <v>42436</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="2">
-        <v>42432.598611111112</v>
+        <v>42432.638194444444</v>
       </c>
       <c r="J17" s="2">
-        <v>42432.598611111112</v>
+        <v>42432.638194444444</v>
       </c>
       <c r="K17" s="2">
         <v>42436</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>22</v>
@@ -2914,154 +2765,154 @@
         <v>23</v>
       </c>
       <c r="I18" s="2">
-        <v>42432.614583333328</v>
+        <v>42432.648611111108</v>
       </c>
       <c r="J18" s="2">
-        <v>42432.614583333328</v>
+        <v>42432.648611111108</v>
       </c>
       <c r="K18" s="2">
         <v>42436</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="2">
-        <v>42432.619444444441</v>
+        <v>42432.689583333333</v>
       </c>
       <c r="J19" s="2">
-        <v>42432.619444444441</v>
+        <v>42432.689583333333</v>
       </c>
       <c r="K19" s="2">
         <v>42436</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="2">
-        <v>42432.638194444444</v>
+        <v>42432.725694444445</v>
       </c>
       <c r="J20" s="2">
-        <v>42432.638194444444</v>
+        <v>42432.725694444445</v>
       </c>
       <c r="K20" s="2">
         <v>42436</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>22</v>
@@ -3073,101 +2924,101 @@
         <v>23</v>
       </c>
       <c r="I21" s="2">
-        <v>42432.648611111108</v>
+        <v>42432.775694444441</v>
       </c>
       <c r="J21" s="2">
-        <v>42432.648611111108</v>
+        <v>42432.775694444441</v>
       </c>
       <c r="K21" s="2">
         <v>42436</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="2">
-        <v>42432.689583333333</v>
+        <v>42432.792361111111</v>
       </c>
       <c r="J22" s="2">
-        <v>42432.689583333333</v>
+        <v>42432.792361111111</v>
       </c>
       <c r="K22" s="2">
         <v>42436</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>22</v>
@@ -3179,48 +3030,48 @@
         <v>23</v>
       </c>
       <c r="I23" s="2">
-        <v>42432.725694444445</v>
+        <v>42443.84097222222</v>
       </c>
       <c r="J23" s="2">
-        <v>42432.725694444445</v>
+        <v>42443.84097222222</v>
       </c>
       <c r="K23" s="2">
-        <v>42436</v>
+        <v>42450</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -3232,48 +3083,48 @@
         <v>23</v>
       </c>
       <c r="I24" s="2">
-        <v>42432.775694444441</v>
+        <v>42443.84097222222</v>
       </c>
       <c r="J24" s="2">
-        <v>42432.775694444441</v>
+        <v>42443.84097222222</v>
       </c>
       <c r="K24" s="2">
-        <v>42436</v>
+        <v>42450</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>22</v>
@@ -3285,154 +3136,154 @@
         <v>23</v>
       </c>
       <c r="I25" s="2">
-        <v>42432.792361111111</v>
+        <v>42443.84097222222</v>
       </c>
       <c r="J25" s="2">
-        <v>42432.792361111111</v>
+        <v>42443.84097222222</v>
       </c>
       <c r="K25" s="2">
-        <v>42436</v>
+        <v>42450</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1">
+        <v>400</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="2">
+        <v>42444.808333333334</v>
+      </c>
+      <c r="J26" s="2">
+        <v>42444.808333333334</v>
+      </c>
+      <c r="K26" s="2">
+        <v>42450</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="1">
-        <v>350</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="2">
-        <v>42434.420138888891</v>
-      </c>
-      <c r="J26" s="2">
-        <v>42434.420138888891</v>
-      </c>
-      <c r="K26" s="2">
-        <v>42443</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>212</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="F27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="2">
-        <v>42443.84097222222</v>
+        <v>42444.85</v>
       </c>
       <c r="J27" s="2">
-        <v>42443.84097222222</v>
+        <v>42444.85</v>
       </c>
       <c r="K27" s="2">
         <v>42450</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>22</v>
@@ -3444,48 +3295,48 @@
         <v>23</v>
       </c>
       <c r="I28" s="2">
-        <v>42443.84097222222</v>
+        <v>42444.85</v>
       </c>
       <c r="J28" s="2">
-        <v>42443.84097222222</v>
+        <v>42444.85</v>
       </c>
       <c r="K28" s="2">
         <v>42450</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>22</v>
@@ -3497,48 +3348,48 @@
         <v>23</v>
       </c>
       <c r="I29" s="2">
-        <v>42443.84097222222</v>
+        <v>42448.006944444445</v>
       </c>
       <c r="J29" s="2">
-        <v>42443.84097222222</v>
+        <v>42448.006944444445</v>
       </c>
       <c r="K29" s="2">
-        <v>42450</v>
+        <v>42458</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>224</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>22</v>
@@ -3550,39 +3401,39 @@
         <v>23</v>
       </c>
       <c r="I30" s="2">
-        <v>42444.808333333334</v>
+        <v>42457.90902777778</v>
       </c>
       <c r="J30" s="2">
-        <v>42444.808333333334</v>
+        <v>42457.90902777778</v>
       </c>
       <c r="K30" s="2">
-        <v>42450</v>
+        <v>42464</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>117</v>
+        <v>232</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1975</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>235</v>
@@ -3603,101 +3454,101 @@
         <v>23</v>
       </c>
       <c r="I31" s="2">
-        <v>42444.819444444445</v>
+        <v>42491.455555555556</v>
       </c>
       <c r="J31" s="2">
-        <v>42444.819444444445</v>
+        <v>42491.455555555556</v>
       </c>
       <c r="K31" s="2">
-        <v>42450</v>
+        <v>42499</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="2">
-        <v>42444.85</v>
+        <v>42491.815972222219</v>
       </c>
       <c r="J32" s="2">
-        <v>42444.85</v>
+        <v>42491.815972222219</v>
       </c>
       <c r="K32" s="2">
-        <v>42450</v>
+        <v>42499</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>22</v>
@@ -3709,101 +3560,101 @@
         <v>23</v>
       </c>
       <c r="I33" s="2">
-        <v>42444.85</v>
+        <v>42492.943749999999</v>
       </c>
       <c r="J33" s="2">
-        <v>42444.85</v>
+        <v>42492.943749999999</v>
       </c>
       <c r="K33" s="2">
-        <v>42450</v>
+        <v>42499</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <v>42448.006944444445</v>
+        <v>42495.961805555555</v>
       </c>
       <c r="J34" s="2">
-        <v>42448.006944444445</v>
+        <v>42495.961805555555</v>
       </c>
       <c r="K34" s="2">
-        <v>42458</v>
+        <v>42499</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>22</v>
@@ -3815,101 +3666,101 @@
         <v>23</v>
       </c>
       <c r="I35" s="2">
-        <v>42456.856249999997</v>
+        <v>42497.85555555555</v>
       </c>
       <c r="J35" s="2">
-        <v>42456.856249999997</v>
+        <v>42497.85555555555</v>
       </c>
       <c r="K35" s="2">
-        <v>42464</v>
+        <v>42508</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="2">
-        <v>42457.90902777778</v>
+        <v>42498.832638888889</v>
       </c>
       <c r="J36" s="2">
-        <v>42457.90902777778</v>
+        <v>42498.832638888889</v>
       </c>
       <c r="K36" s="2">
-        <v>42464</v>
+        <v>42508</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>22</v>
@@ -3921,48 +3772,48 @@
         <v>23</v>
       </c>
       <c r="I37" s="2">
-        <v>42491.455555555556</v>
+        <v>42509.447916666664</v>
       </c>
       <c r="J37" s="2">
-        <v>42491.455555555556</v>
+        <v>42509.447916666664</v>
       </c>
       <c r="K37" s="2">
-        <v>42499</v>
+        <v>42513</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>22</v>
@@ -3974,22 +3825,22 @@
         <v>23</v>
       </c>
       <c r="I38" s="2">
-        <v>42491.815972222219</v>
+        <v>42509.736805555556</v>
       </c>
       <c r="J38" s="2">
-        <v>42491.815972222219</v>
+        <v>42509.736805555556</v>
       </c>
       <c r="K38" s="2">
-        <v>42499</v>
+        <v>42513</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>27</v>
@@ -3998,24 +3849,24 @@
         <v>28</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>22</v>
@@ -4027,260 +3878,260 @@
         <v>23</v>
       </c>
       <c r="I39" s="2">
-        <v>42492.943749999999</v>
+        <v>42510.382638888885</v>
       </c>
       <c r="J39" s="2">
-        <v>42492.943749999999</v>
+        <v>42510.382638888885</v>
       </c>
       <c r="K39" s="2">
-        <v>42499</v>
+        <v>42520</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>273</v>
+        <v>290</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1990</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="2">
-        <v>42495.961805555555</v>
+        <v>42510.383333333331</v>
       </c>
       <c r="J40" s="2">
-        <v>42495.961805555555</v>
+        <v>42510.383333333331</v>
       </c>
       <c r="K40" s="2">
-        <v>42499</v>
+        <v>42520</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>291</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="2">
-        <v>42497.85555555555</v>
+        <v>42511.922916666663</v>
       </c>
       <c r="J41" s="2">
-        <v>42497.85555555555</v>
+        <v>42511.922916666663</v>
       </c>
       <c r="K41" s="2">
-        <v>42508</v>
+        <v>42520</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="2">
-        <v>42498.832638888889</v>
+        <v>42512.893749999996</v>
       </c>
       <c r="J42" s="2">
-        <v>42498.832638888889</v>
+        <v>42512.893749999996</v>
       </c>
       <c r="K42" s="2">
-        <v>42508</v>
+        <v>42520</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>305</v>
+        <v>26</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>306</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="2">
-        <v>42509.447916666664</v>
+        <v>42513.005555555552</v>
       </c>
       <c r="J43" s="2">
-        <v>42509.447916666664</v>
+        <v>42513.005555555552</v>
       </c>
       <c r="K43" s="2">
-        <v>42513</v>
+        <v>42520</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>40</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>22</v>
@@ -4292,154 +4143,154 @@
         <v>23</v>
       </c>
       <c r="I44" s="2">
-        <v>42509.736805555556</v>
+        <v>42517.40902777778</v>
       </c>
       <c r="J44" s="2">
-        <v>42509.736805555556</v>
+        <v>42517.40902777778</v>
       </c>
       <c r="K44" s="2">
-        <v>42513</v>
+        <v>42527</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>99</v>
+        <v>322</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I45" s="2">
-        <v>42510.382638888885</v>
+        <v>42519.529166666667</v>
       </c>
       <c r="J45" s="2">
-        <v>42510.382638888885</v>
+        <v>42519.529166666667</v>
       </c>
       <c r="K45" s="2">
-        <v>42520</v>
+        <v>42527</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>40</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I46" s="2">
-        <v>42510.383333333331</v>
+        <v>42520.900694444441</v>
       </c>
       <c r="J46" s="2">
-        <v>42510.383333333331</v>
+        <v>42520.900694444441</v>
       </c>
       <c r="K46" s="2">
-        <v>42520</v>
+        <v>42527</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>40</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>22</v>
@@ -4451,48 +4302,48 @@
         <v>23</v>
       </c>
       <c r="I47" s="2">
-        <v>42511.922916666663</v>
+        <v>42520.900694444441</v>
       </c>
       <c r="J47" s="2">
-        <v>42511.922916666663</v>
+        <v>42520.900694444441</v>
       </c>
       <c r="K47" s="2">
-        <v>42520</v>
+        <v>42527</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>22</v>
@@ -4504,154 +4355,154 @@
         <v>23</v>
       </c>
       <c r="I48" s="2">
-        <v>42512.893749999996</v>
+        <v>42521.933333333334</v>
       </c>
       <c r="J48" s="2">
-        <v>42512.893749999996</v>
+        <v>42521.933333333334</v>
       </c>
       <c r="K48" s="2">
-        <v>42520</v>
+        <v>42527</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I49" s="2">
-        <v>42513.005555555552</v>
+        <v>42521.993750000001</v>
       </c>
       <c r="J49" s="2">
-        <v>42513.005555555552</v>
+        <v>42521.993750000001</v>
       </c>
       <c r="K49" s="2">
-        <v>42520</v>
+        <v>42527</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>351</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I50" s="2">
-        <v>42517.40902777778</v>
+        <v>42522.758333333331</v>
       </c>
       <c r="J50" s="2">
-        <v>42517.40902777778</v>
+        <v>42522.758333333331</v>
       </c>
       <c r="K50" s="2">
         <v>42527</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>358</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>22</v>
@@ -4663,95 +4514,95 @@
         <v>23</v>
       </c>
       <c r="I51" s="2">
-        <v>42519.529166666667</v>
+        <v>42522.914583333331</v>
       </c>
       <c r="J51" s="2">
-        <v>42519.529166666667</v>
+        <v>42522.914583333331</v>
       </c>
       <c r="K51" s="2">
         <v>42527</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>367</v>
+        <v>196</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I52" s="2">
-        <v>42519.865277777775</v>
+        <v>42522.927777777775</v>
       </c>
       <c r="J52" s="2">
-        <v>42519.865277777775</v>
+        <v>42522.927777777775</v>
       </c>
       <c r="K52" s="2">
         <v>42527</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>24</v>
+        <v>373</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>371</v>
+        <v>106</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>372</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>375</v>
+        <v>197</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>376</v>
@@ -4763,37 +4614,37 @@
         <v>22</v>
       </c>
       <c r="G53" s="1">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I53" s="2">
-        <v>42520.900694444441</v>
+        <v>42538.85555555555</v>
       </c>
       <c r="J53" s="2">
-        <v>42520.900694444441</v>
+        <v>42538.85555555555</v>
       </c>
       <c r="K53" s="2">
-        <v>42527</v>
+        <v>42548</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>380</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4801,387 +4652,387 @@
         <v>381</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="1">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I54" s="2">
-        <v>42520.900694444441</v>
+        <v>42540.546527777777</v>
       </c>
       <c r="J54" s="2">
-        <v>42520.900694444441</v>
+        <v>42540.546527777777</v>
       </c>
       <c r="K54" s="2">
-        <v>42527</v>
+        <v>42548</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>152</v>
+        <v>386</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="1">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I55" s="2">
-        <v>42521.815972222219</v>
+        <v>42540.558333333334</v>
       </c>
       <c r="J55" s="2">
-        <v>42521.815972222219</v>
+        <v>42540.558333333334</v>
       </c>
       <c r="K55" s="2">
-        <v>42527</v>
+        <v>42548</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>40</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="2">
-        <v>42521.933333333334</v>
+        <v>42540.569444444445</v>
       </c>
       <c r="J56" s="2">
-        <v>42521.933333333334</v>
+        <v>42540.569444444445</v>
       </c>
       <c r="K56" s="2">
-        <v>42527</v>
+        <v>42548</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="O56" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="1">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I57" s="2">
-        <v>42521.993750000001</v>
+        <v>42540.832638888889</v>
       </c>
       <c r="J57" s="2">
-        <v>42521.993750000001</v>
+        <v>42540.832638888889</v>
       </c>
       <c r="K57" s="2">
-        <v>42527</v>
+        <v>42548</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>125</v>
+        <v>336</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>40</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G58" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I58" s="2">
-        <v>42522.758333333331</v>
+        <v>42542.897222222222</v>
       </c>
       <c r="J58" s="2">
-        <v>42522.758333333331</v>
+        <v>42542.897222222222</v>
       </c>
       <c r="K58" s="2">
-        <v>42527</v>
+        <v>42548</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>411</v>
+        <v>226</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="1">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I59" s="2">
-        <v>42522.914583333331</v>
+        <v>42544.725694444445</v>
       </c>
       <c r="J59" s="2">
-        <v>42522.914583333331</v>
+        <v>42544.725694444445</v>
       </c>
       <c r="K59" s="2">
-        <v>42527</v>
+        <v>42548</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>421</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I60" s="2">
-        <v>42522.927777777775</v>
+        <v>42545.905555555553</v>
       </c>
       <c r="J60" s="2">
-        <v>42522.927777777775</v>
+        <v>42545.905555555553</v>
       </c>
       <c r="K60" s="2">
-        <v>42527</v>
+        <v>42555</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>221</v>
+        <v>428</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>22</v>
@@ -5193,42 +5044,42 @@
         <v>23</v>
       </c>
       <c r="I61" s="2">
-        <v>42538.85555555555</v>
+        <v>42546.372916666667</v>
       </c>
       <c r="J61" s="2">
-        <v>42538.85555555555</v>
+        <v>42546.372916666667</v>
       </c>
       <c r="K61" s="2">
-        <v>42548</v>
+        <v>42555</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>429</v>
+        <v>57</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>432</v>
+        <v>201</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>433</v>
@@ -5246,25 +5097,25 @@
         <v>23</v>
       </c>
       <c r="I62" s="2">
-        <v>42540.546527777777</v>
+        <v>42551.63680555555</v>
       </c>
       <c r="J62" s="2">
-        <v>42540.546527777777</v>
+        <v>42551.63680555555</v>
       </c>
       <c r="K62" s="2">
-        <v>42548</v>
+        <v>42555</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>92</v>
+      <c r="M62" s="1">
+        <v>1970</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>326</v>
+        <v>27</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>28</v>
@@ -5293,107 +5144,107 @@
         <v>22</v>
       </c>
       <c r="G63" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I63" s="2">
-        <v>42540.558333333334</v>
+        <v>42551.654166666667</v>
       </c>
       <c r="J63" s="2">
-        <v>42540.558333333334</v>
+        <v>42551.654166666667</v>
       </c>
       <c r="K63" s="2">
-        <v>42548</v>
+        <v>42555</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>350</v>
+      <c r="M63" s="1">
+        <v>1968</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>443</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1">
+        <v>550</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="2">
+        <v>42559.73333333333</v>
+      </c>
+      <c r="J64" s="2">
+        <v>42559.73333333333</v>
+      </c>
+      <c r="K64" s="2">
+        <v>42569</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="1">
-        <v>600</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64" s="2">
-        <v>42540.569444444445</v>
-      </c>
-      <c r="J64" s="2">
-        <v>42540.569444444445</v>
-      </c>
-      <c r="K64" s="2">
-        <v>42548</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="M64" s="1" t="s">
-        <v>125</v>
+        <v>449</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>40</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>451</v>
+        <v>266</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>22</v>
@@ -5405,48 +5256,48 @@
         <v>23</v>
       </c>
       <c r="I65" s="2">
-        <v>42540.832638888889</v>
+        <v>42562.52847222222</v>
       </c>
       <c r="J65" s="2">
-        <v>42540.832638888889</v>
+        <v>42562.52847222222</v>
       </c>
       <c r="K65" s="2">
-        <v>42548</v>
+        <v>42569</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>378</v>
+        <v>185</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>22</v>
@@ -5458,48 +5309,48 @@
         <v>23</v>
       </c>
       <c r="I66" s="2">
-        <v>42542.897222222222</v>
+        <v>42569.979166666664</v>
       </c>
       <c r="J66" s="2">
-        <v>42542.897222222222</v>
-      </c>
-      <c r="K66" s="2">
-        <v>42548</v>
+        <v>42569.979166666664</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>22</v>
@@ -5511,455 +5362,31 @@
         <v>23</v>
       </c>
       <c r="I67" s="2">
-        <v>42544.725694444445</v>
+        <v>42571.460416666661</v>
       </c>
       <c r="J67" s="2">
-        <v>42544.725694444445</v>
-      </c>
-      <c r="K67" s="2">
-        <v>42548</v>
+        <v>42571.460416666661</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="1">
-        <v>600</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="2">
-        <v>42545.905555555553</v>
-      </c>
-      <c r="J68" s="2">
-        <v>42545.905555555553</v>
-      </c>
-      <c r="K68" s="2">
-        <v>42555</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="1">
-        <v>600</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" s="2">
-        <v>42546.372916666667</v>
-      </c>
-      <c r="J69" s="2">
-        <v>42546.372916666667</v>
-      </c>
-      <c r="K69" s="2">
-        <v>42555</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="1">
-        <v>550</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" s="2">
-        <v>42551.63680555555</v>
-      </c>
-      <c r="J70" s="2">
-        <v>42551.63680555555</v>
-      </c>
-      <c r="K70" s="2">
-        <v>42555</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="1">
-        <v>600</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I71" s="2">
-        <v>42551.654166666667</v>
-      </c>
-      <c r="J71" s="2">
-        <v>42551.654166666667</v>
-      </c>
-      <c r="K71" s="2">
-        <v>42555</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="1">
-        <v>550</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" s="2">
-        <v>42559.73333333333</v>
-      </c>
-      <c r="J72" s="2">
-        <v>42559.73333333333</v>
-      </c>
-      <c r="K72" s="2">
-        <v>42569</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="1">
-        <v>550</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="2">
-        <v>42562.52847222222</v>
-      </c>
-      <c r="J73" s="2">
-        <v>42562.52847222222</v>
-      </c>
-      <c r="K73" s="2">
-        <v>42569</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="1">
-        <v>600</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74" s="2">
-        <v>42569.979166666664</v>
-      </c>
-      <c r="J74" s="2">
-        <v>42569.979166666664</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="1">
-        <v>550</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" s="2">
-        <v>42571.460416666661</v>
-      </c>
-      <c r="J75" s="2">
-        <v>42571.460416666661</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
